--- a/docs/PTA2_DDC_80/PTA2_DDC_80_12.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731779922.1247604</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731779928.3211434</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779922.1247604.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779928.3211434.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.31</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731779929.721265</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731779932.210579</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779929.721265.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779932.210579.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731779934.2231157</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731779934.6093576</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779934.2231157.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779934.6093576.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>134.94</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.18</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731779936.9073653</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731779936.9073653.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731779936.9073653.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.58</v>
       </c>
-      <c r="J6" t="n">
-        <v>135.58</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>135.34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731779937.994389</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731779940.577131</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779937.994389.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779940.577131.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7020</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7034.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-14.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731779944.1502216</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731779948.2336812</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779944.1502216.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779948.2336812.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7013</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7017</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731779949.925838</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731779954.3359187</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779949.925838.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779954.3359187.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6998</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7001</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731779954.6452014</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731779954.6452014.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731779954.6452014.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7005.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>7005.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731779958.2380064</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731779961.25315</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779958.2380064.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779961.25315.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>489.9</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>490.85</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.9500000000000455</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731779966.3016086</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731779972.5654383</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779966.3016086.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779972.5654383.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>490.15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>488.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.349999999999966</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731779974.076122</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731779975.161858</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779974.076122.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779975.161858.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>486.15</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>487.05</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1095,43 +1177,49 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731779975.4438741</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731779975.4438741.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731779975.4438741.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>484.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>484.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,51 +1227,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731779977.953782</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731779982.9500742</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779977.953782.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779982.9500742.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>940.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>945.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-5.200000000000045</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -1191,51 +1285,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731779985.1034415</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731779991.35775</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779985.1034415.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779991.35775.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>944</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>937.2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-6.799999999999955</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731779995.9231737</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731779996.1545267</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779995.9231737.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779996.1545267.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>937.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>935.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731779996.3896112</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731779998.7928858</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779996.3896112.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779998.7928858.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>37.915</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>38.08</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731780000.0675974</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731780003.5735974</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780000.0675974.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780003.5735974.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>37.85</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>38.025</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1749999999999972</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731780004.8289628</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731780009.9541166</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780004.8289628.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780009.9541166.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>38.045</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>38.075</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731780011.0331166</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731780012.1767612</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780011.0331166.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780012.1767612.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>38.19</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>38.14</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731780014.111259</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731780015.244002</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780014.111259.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780015.244002.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>38.04</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>38.11</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731780018.2065606</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731780019.52853</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780018.2065606.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780019.52853.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1249</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1244.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>4.799999999999955</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731780024.2769377</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731780025.2626328</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780024.2769377.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780025.2626328.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1241.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1244.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731780025.689426</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731780026.8070364</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780025.689426.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780026.8070364.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1240.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1244.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>4.399999999999864</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731780029.718495</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731780033.5500593</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780029.718495.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780033.5500593.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1235</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1237.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1763,95 +1923,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731780035.8175948</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731780035.8175948.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731780035.8175948.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1239.6</v>
       </c>
-      <c r="J27" t="n">
-        <v>1239.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1240.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.6000000000001364</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731780037.8690083</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731780039.9484794</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780037.8690083.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780039.9484794.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>81.22</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>81.03</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731780042.4272754</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731780044.6946058</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780042.4272754.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780044.6946058.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>80.95</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>81</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731780045.7187092</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731780047.0788186</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780045.7187092.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780047.0788186.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>80.73999999999999</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>80.84999999999999</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731780048.683691</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731780051.1812358</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780048.683691.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780051.1812358.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>80.64</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>80.59999999999999</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2015,95 +2205,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731780054.7127976</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731780054.7127976.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731780054.7127976.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>80.77</v>
       </c>
-      <c r="J32" t="n">
-        <v>80.77</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731780059.9439945</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731780061.7364101</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780059.9439945.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780061.7364101.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>14.547</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>14.486</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.06099999999999994</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731780063.4236748</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731780064.5199533</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780063.4236748.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780064.5199533.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>14.436</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>14.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.06400000000000006</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2163,51 +2371,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731780065.7528079</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731780066.4229865</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780065.7528079.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780066.4229865.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>14.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>14.484</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.08399999999999963</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2215,51 +2429,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731780068.6697147</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731780072.985349</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780068.6697147.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780072.985349.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>14.386</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>14.392</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.006000000000000227</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731780075.76695</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731780076.169441</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780075.76695.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780076.169441.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>106.49</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>106.89</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2319,51 +2545,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731780077.1126812</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731780078.41598</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780077.1126812.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780078.41598.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>107.19</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>106.86</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731780084.3925464</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731780089.1183228</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780084.3925464.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780089.1183228.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>106.66</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>106.18</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731780091.6119971</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731780092.120001</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780091.6119971.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780092.120001.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>106.22</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>105.93</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731780099.6685903</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731780100.9750395</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780099.6685903.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780100.9750395.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>350.35</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>349.79</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2527,51 +2777,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731780103.1065123</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731780111.2706673</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780103.1065123.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780111.2706673.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>348.79</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>347.73</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-1.060000000000002</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2579,51 +2835,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731780112.36656</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731780113.9855614</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780112.36656.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780113.9855614.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>2797.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>2791.45</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>5.75</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731780117.2074358</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731780120.1727517</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780117.2074358.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780120.1727517.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>2785.25</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>2788</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>2.75</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731780122.3515022</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731780122.3974593</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780122.3515022.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780122.3974593.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>2783.45</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>2784.85</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731780124.2587545</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731780126.3704453</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780124.2587545.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780126.3704453.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>2776.05</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>2783.9</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>7.849999999999909</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731780132.4776814</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731780133.8605213</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780132.4776814.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780133.8605213.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>599.1</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>597.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731780134.6035852</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731780139.722304</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780134.6035852.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780139.722304.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>595.7</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>593.4</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-2.300000000000068</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731780141.4716952</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731780143.6278207</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780141.4716952.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780143.6278207.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>594.7</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>593.7</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731780144.3438838</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731780145.665487</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780144.3438838.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780145.665487.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>592.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>593.9</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2995,44 +3299,50 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731780146.9088018</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731780146.9088018.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731780146.9088018.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>592.4</v>
       </c>
-      <c r="J51" t="n">
-        <v>592.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>588.8</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -3093,19 +3403,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.39999999999986</v>
+        <v>13.79999999999973</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.879999999999973</v>
+        <v>2.759999999999946</v>
       </c>
       <c r="E2" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -3137,19 +3447,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.999999999999886</v>
+        <v>-1.600000000000136</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3999999999999773</v>
+        <v>-0.3200000000000273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.34</v>
+        <v>-0.27</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5">
@@ -3159,19 +3469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3099999999999881</v>
+        <v>0.1199999999999903</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06199999999999761</v>
+        <v>0.02399999999999807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -3203,19 +3513,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05000000000001137</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01250000000000284</v>
+        <v>0.04749999999999943</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03</v>
+        <v>0.15</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -3225,16 +3535,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.5</v>
+        <v>-8.5</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.875</v>
+        <v>-2.125</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="F8" t="n">
         <v>-0.03</v>
